--- a/Final Deliverables/User Acceptance Test/Testcases Report.xlsx
+++ b/Final Deliverables/User Acceptance Test/Testcases Report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512252C8-59CC-4174-988B-0F4DCCFD24F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA12568-C444-4A06-8077-1A47C5DF8931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,9 +195,6 @@
     <t>PNT2022TMID27486</t>
   </si>
   <si>
-    <t>http://127.0.0.1:5500/index.html</t>
-  </si>
-  <si>
     <t>Infant Benita L</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>Ponmani PR</t>
+  </si>
+  <si>
+    <t>https://ibm-pnt2022tmid27483.web.app/</t>
   </si>
 </sst>
 </file>
@@ -3309,7 +3309,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3455,7 +3455,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>28</v>
@@ -3487,7 +3487,7 @@
         <v>15</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
@@ -3510,7 +3510,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>33</v>
@@ -3522,10 +3522,10 @@
         <v>16</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>37</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>38</v>
@@ -3557,10 +3557,10 @@
         <v>16</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>42</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>43</v>
@@ -3592,7 +3592,7 @@
         <v>16</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -3628,7 +3628,7 @@
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
       <c r="N10" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -3723,10 +3723,13 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G6" r:id="rId1" xr:uid="{CEC8A550-891F-4631-9EF4-8846CA471D6E}"/>
+    <hyperlink ref="G7" r:id="rId2" xr:uid="{A7067319-4D3C-4DF5-9898-66F93CED1148}"/>
+    <hyperlink ref="G8" r:id="rId3" xr:uid="{0A75F308-FCD7-4AA1-8CF0-726CBB6FF3B6}"/>
+    <hyperlink ref="G9" r:id="rId4" xr:uid="{2E4219BD-D952-4296-B9DC-CE70757FC4DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
